--- a/query_output.xlsx
+++ b/query_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:D82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,153 +436,1643 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Activity Code</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Activity Description</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Industrial Zone</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Number of businesses</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>KCN ĐỒNG XOÀI II</t>
+          <t>CÔNG TY TNHH YAKJIN SÀI GÒN</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>1410</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>May trang phục (trừ trang phục từ da lông thú)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>KCN BẮC ĐỒNG PHÚ</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>KCN MINH HƯNG HÀN QUỐC</t>
+          <t>CÔNG TY TNHH MỘT THÀNH VIÊN THƯƠNG MẠI DỊCH VỤ VÀ SẢN XUẤT QUANG TUẤN</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>4620</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Bán buôn nông, lâm sản nguyên liệu (trừ gỗ, tre, nứa) và động vật sống</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>KCN BẮC ĐỒNG PHÚ</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>KCN CHƠN THÀNH</t>
+          <t>CÔNG TY TNHH MỘT THÀNH VIÊN THỦY TIN</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15</v>
+        <v>5510</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Dịch vụ lưu trú ngắn ngày</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>KCN BẮC ĐỒNG PHÚ</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>KCN MINH HƯNG SIKICO</t>
+          <t xml:space="preserve">CÔNG TY TNHH  XÂY DỰNG DỊCH VỤ THÀNH ĐẠT </t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>4663</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Bán buôn vật liệu, thiết bị lắp đặt khác trong xây dựng</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>KCN BẮC ĐỒNG PHÚ</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>KCN MINH HƯNG</t>
+          <t>CÔNG TY TNHH DUCKIL TEXTILE VINA</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>3290</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Sản xuất khác chưa được phân vào đâu</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>KCN MINH HƯNG HÀN QUỐC</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>KCN TÂN THÀNH ĐỒNG XOÀI</t>
+          <t>CÔNG TY TNHH RONGHENG (VIỆT NAM)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>1621</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Sản xuất gỗ dán, gỗ lạng, ván ép và ván mỏng khác</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>KCN MINH HƯNG III</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>KCN CHƠN THÀNH I</t>
+          <t>CÔNG TY TNHH MỘT THÀNH VIÊN ĐẠI ĐỈNH PHÁT</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>6810</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Kinh doanh bất động sản, quyền sử dụng đất thuộc chủ sở hữu, chủ sử dụng hoặc đi thuê</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>KCN MINH HƯNG III</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>KCN ĐỒNG XOÀI</t>
+          <t>CÔNG TY TNHH MỘT THÀNH VIÊN THƯƠNG MẠI VÀ DỊCH VỤ HOÀNG NGỌC BP</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>4771</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Bán lẻ hàng may mặc, giày dép, hàng da và giả da trong các cửa hàng chuyên doanh</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>KCN NAM ĐỒNG PHÚ</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>KCN MINH HƯNG III</t>
+          <t>CÔNG TY TNHH TOÀN PHÁT ĐỒNG PHÚ</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>5610</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Nhà hàng và các dịch vụ ăn uống phục vụ lưu động</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>KCN NAM ĐỒNG PHÚ</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>KCN ĐỒNG XOÀI III</t>
+          <t>CÔNG TY TNHH MỘT THÀNH VIÊN THƯƠNG MẠI DỊCH VỤ TRỌNG LỰC</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
+        <v>5510</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Dịch vụ lưu trú ngắn ngày</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>KCN NAM ĐỒNG PHÚ</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>KCN ĐỒNG XOÀI I</t>
+          <t>CÔNG TY TNHH THƯƠNG MẠI GIÀY DA VIETCAN</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>1520</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Sản xuất giày dép</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>KCN CHƠN THÀNH</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>CÔNG TY TNHH XUÂN HƯỞNG BÌNH PHƯỚC</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>5210</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Kho bãi và lưu giữ hàng hóa</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>KCN BẮC ĐỒNG PHÚ</t>
         </is>
-      </c>
-      <c r="B13" t="n">
-        <v>18</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>KCN BECAMEX BÌNH PHƯỚC</t>
+          <t>CÔNG TY TNHH HẰNG KHOA VIỆT NAM</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>3290</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Sản xuất khác chưa được phân vào đâu</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>KCN BẮC ĐỒNG PHÚ</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>CÔNG TY TNHH MỘT THÀNH VIÊN THƯƠNG MẠI DỊCH VỤ JU YOUNG</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1410</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>May trang phục (trừ trang phục từ da lông thú)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>KCN BẮC ĐỒNG PHÚ</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH  ĐẦU TƯ VÀ PHÁT TRIỂN DỰ ÁN LÊ MINH</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>6810</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Kinh doanh bất động sản, quyền sử dụng đất thuộc chủ sở hữu, chủ sử dụng hoặc đi thuê</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>KCN ĐỒNG XOÀI II</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH GIẤY SHENG DA VN</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1629</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Sản xuất sản phẩm khác từ gỗ; sản xuất sản phẩm từ tre, nứa, rơm, rạ và vật liệu tết bện</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>KCN CHƠN THÀNH</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH GỖ ĐỒNG PHÚC</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1629</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Sản xuất sản phẩm khác từ gỗ; sản xuất sản phẩm từ tre, nứa, rơm, rạ và vật liệu tết bện</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>KCN CHƠN THÀNH</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH MỘT THÀNH VIÊN CƠ KHÍ - XE NÂNG TRUNG HIẾU</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>4520</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Bảo dưỡng, sửa chữa ô tô và xe có động cơ khác</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>KCN BẮC ĐỒNG PHÚ</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH SẢN XUẤT THƯƠNG MẠI KIM HOÀNG MINH</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>4530</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Bán phụ tùng và các bộ phận phụ trợ của ô tô và xe có động cơ khác</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>KCN BẮC ĐỒNG PHÚ</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH SẢN XUẤT THƯƠNG MẠI KIM NAM HẢI</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>4530</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Bán phụ tùng và các bộ phận phụ trợ của ô tô và xe có động cơ khác</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>KCN BẮC ĐỒNG PHÚ</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH SẢN XUẤT KẾT CẤU THÉP HỒNG TÍN</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>2599</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Sản xuất sản phẩm khác bằng kim loại chưa được phân vào đâu</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>KCN BECAMEX BÌNH PHƯỚC</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH GIẤY BAO BÌ MỸ THỊNH</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1702</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Sản xuất giấy nhăn, bìa nhăn, bao bì từ giấy và bìa</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>KCN ĐỒNG XOÀI III</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH NỘI THẤT HẰNG DỤ</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>3100</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Sản xuất giường, tủ, bàn, ghế</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>KCN BẮC ĐỒNG PHÚ</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH MỘT THÀNH VIÊN YIHUI</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>2220</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Sản xuất sản phẩm từ plastic</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>KCN NAM ĐỒNG PHÚ</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>12</v>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH MTV BAF MEAT BÌNH PHƯỚC</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1010</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Chế biến, bảo quản thịt và các sản phẩm từ thịt</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>KCN MINH HƯNG SIKICO</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH MỘT THÀNH VIÊN SX VÀ TM ĐỨC MẠNH HÙNG</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>4662</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Bán buôn kim loại và quặng kim loại</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>KCN CHƠN THÀNH</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH KIM THỦY NGÂN</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>6810</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Kinh doanh bất động sản, quyền sử dụng đất thuộc chủ sở hữu, chủ sử dụng hoặc đi thuê</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>KCN NAM ĐỒNG PHÚ</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH CUNG CẤP THIẾT BỊ BỂ CÁ CẢNH YUSEE VIỆT NAM</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>2220</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Sản xuất sản phẩm từ plastic</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>KCN BẮC ĐỒNG PHÚ</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH XÂY DỰNG DỰ ÁN ACB</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>2592</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Gia công cơ khí; xử lý và tráng phủ kim loại</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>KCN CHƠN THÀNH I</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH SẢN XUẤT THƯƠNG MẠI DỊCH VỤ THANH THẢO BP</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>4669</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Bán buôn chuyên doanh khác chưa được phân vào đâu</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>KCN CHƠN THÀNH</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH CHIEF</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>2599</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Sản xuất sản phẩm khác bằng kim loại chưa được phân vào đâu</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>KCN CHƠN THÀNH I</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH WOOD SPARK</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>2599</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Sản xuất sản phẩm khác bằng kim loại chưa được phân vào đâu</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>KCN CHƠN THÀNH I</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH THƯƠNG MẠI DỊCH VỤ KIỀU ANH PHÁT</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>7830</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Cung ứng và quản lý nguồn lao động</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>KCN CHƠN THÀNH</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH THƯƠNG MẠI DỊCH VỤ TỔNG HỢP LIÊN THÀNH</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>4933</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Vận tải hàng hóa bằng đường bộ</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>KCN BECAMEX BÌNH PHƯỚC</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH SẢN XUẤT INVICTUS</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1622</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Sản xuất đồ gỗ xây dựng</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>KCN ĐỒNG XOÀI</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH Ô TÔ ĐỒNG PHÚ</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>4511</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Bán buôn ô tô và xe có động cơ khác</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>KCN BẮC ĐỒNG PHÚ</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH SẢN XUẤT GỖ TOÀN THÀNH</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1629</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Sản xuất sản phẩm khác từ gỗ; sản xuất sản phẩm từ tre, nứa, rơm, rạ và vật liệu tết bện</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>KCN CHƠN THÀNH</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH CÔNG NGHỆ DỆT CHÍ THỊNH</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>1391</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Sản xuất vải dệt kim, vải đan móc và vải không dệt khác</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>KCN BẮC ĐỒNG PHÚ</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH KIM LONG ĐỒNG PHÚ</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>4773</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Bán lẻ hàng hóa khác mới trong các cửa hàng chuyên doanh</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>KCN BẮC ĐỒNG PHÚ</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH MỘT THÀNH VIÊN VÀNG BẠC HOÀNG LỘC</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>4662</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Bán buôn kim loại và quặng kim loại</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>KCN BẮC ĐỒNG PHÚ</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH NỘI THẤT HONG CHENG</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>3100</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Sản xuất giường, tủ, bàn, ghế</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>KCN CHƠN THÀNH I</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH THƯƠNG MẠI TÀI PHÁT THỊNH</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>4100</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Xây dựng nhà các loại</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>KCN ĐỒNG XOÀI I</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH TƯ VẤN ĐẦU TƯ XÂY DỰNG ĐỨC PHÚ</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>7110</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Hoạt động kiến trúc và tư vấn kỹ thuật có liên quan</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>KCN NAM ĐỒNG PHÚ</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH SẢN XUẤT VÀ THƯƠNG MẠI GỖ TRƯỜNG XUÂN</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>1610</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Cưa, xẻ, bào gỗ và bảo quản gỗ</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>KCN ĐỒNG XOÀI III</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH GIẤY NAM LONG BÌNH PHƯỚC</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>6810</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Kinh doanh bất động sản, quyền sử dụng đất thuộc chủ sở hữu, chủ sử dụng hoặc đi thuê</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>KCN MINH HƯNG III</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH DỊCH VỤ THƯƠNG MẠI PHƯỚC THIỆN</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>5621</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Cung cấp dịch vụ ăn uống theo hợp đồng không thường xuyên với khách hàng</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>KCN MINH HƯNG</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH ĐẦU TƯ CHƠN THÀNH CAPITAL</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>6810</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Kinh doanh bất động sản, quyền sử dụng đất thuộc chủ sở hữu, chủ sử dụng hoặc đi thuê</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>KCN CHƠN THÀNH I</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH HÀ PHƯỚC THỊNH</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>1629</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Sản xuất sản phẩm khác từ gỗ; sản xuất sản phẩm từ tre, nứa, rơm, rạ và vật liệu tết bện</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>KCN ĐỒNG XOÀI I</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH SX - TM - DV PCCC ĐẠI PHÁT</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>4669</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Bán buôn chuyên doanh khác chưa được phân vào đâu</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>KCN CHƠN THÀNH</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CÔNG TY TNHH THƯƠNG MẠI DỊCH VỤ SẢN XUẤT TÂN AN </t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>1709</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Sản xuất các sản phẩm khác từ giấy và bìa chưa được phân vào đâu</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>KCN MINH HƯNG III</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH  THƯƠNG MẠI DỊCH VỤ ĐẦU TƯ TỔNG HỢP CHƠN THÀNH</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>4690</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Bán buôn tổng hợp</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>KCN CHƠN THÀNH</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>CÔNG TY CỔ PHẦN NAN XIONG VIỆT NAM</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>1629</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Sản xuất sản phẩm khác từ gỗ; sản xuất sản phẩm từ tre, nứa, rơm, rạ và vật liệu tết bện</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>KCN CHƠN THÀNH</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>CÔNG TY CỔ PHẦN ĐẦU TƯ KINH DOANH NHÀ BÌNH PHƯỚC</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>125</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Trồng cây cao su</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>KCN ĐỒNG XOÀI III</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>CÔNG TY CỔ PHẦN CƠ KHÍ LUYỆN KIM CHƠN THÀNH</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>2432</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Đúc kim loại màu</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>KCN CHƠN THÀNH</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>CÔNG TY CỔ PHẦN SINH KHỐI NAHNOOM</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>1629</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Sản xuất sản phẩm khác từ gỗ; sản xuất sản phẩm từ tre, nứa, rơm, rạ và vật liệu tết bện</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>KCN TÂN THÀNH ĐỒNG XOÀI</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>CÔNG TY CỔ PHẦN GREEN WOOD BÌNH PHƯỚC ENERGY</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>1629</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Sản xuất sản phẩm khác từ gỗ; sản xuất sản phẩm từ tre, nứa, rơm, rạ và vật liệu tết bện</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>KCN ĐỒNG XOÀI I</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>CÔNG TY CỔ PHẦN MẦM NON TƯ THỤC HOA MAI</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>8510</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Giáo dục mầm non</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>KCN MINH HƯNG III</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>CÔNG TY CỔ PHẦN ÔTÔ ĐÔ THÀNH BÌNH PHƯỚC</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>4511</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Bán buôn ô tô và xe có động cơ khác</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>KCN BẮC ĐỒNG PHÚ</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>CÔNG TY CỔ PHẦN KIM TÍN MDF ĐỒNG PHÚ</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>1621</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Sản xuất gỗ dán, gỗ lạng, ván ép và ván mỏng khác</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>KCN NAM ĐỒNG PHÚ</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>CÔNG TY CỔ PHẦN THƯƠNG MẠI DỊCH VỤ GIẤY THUẬN AN</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>3830</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Tái chế phế liệu</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>KCN MINH HƯNG III</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>CÔNG TY CỔ PHẦN KIM TÍN BÌNH PHƯỚC</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>2599</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Sản xuất sản phẩm khác bằng kim loại chưa được phân vào đâu</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>KCN NAM ĐỒNG PHÚ</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>CÔNG TY CỔ PHẦN GIẤY KHÔI NGUYÊN</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>3830</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Tái chế phế liệu</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>KCN MINH HƯNG III</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>CÔNG TY CỔ PHẦN TRƯỜNG MẦM NON QUỐC TẾ</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>8512</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Giáo dục mẫu giáo</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>KCN ĐỒNG XOÀI I</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>CÔNG TY CỔ PHẦN QH PACKAGING</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>1080</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Sản xuất thức ăn gia súc, gia cầm và thuỷ sản</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>KCN MINH HƯNG SIKICO</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>CÔNG TY CỔ PHẦN NĂNG LƯỢNG XANH KIM TÍN 3</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>3511</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Sản xuất điện</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>KCN NAM ĐỒNG PHÚ</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>CÔNG TY CỔ PHẦN NĂNG LƯỢNG XANH KIM TÍN 2</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>3511</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Sản xuất điện</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>KCN NAM ĐỒNG PHÚ</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>CÔNG TY CỔ PHẦN NĂNG LƯỢNG XANH KIM TÍN 1</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>3511</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Sản xuất điện</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>KCN NAM ĐỒNG PHÚ</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>CÔNG TY CỔ PHẦN BẤT ĐỘNG SẢN LEVAHOMES</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>6810</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Kinh doanh bất động sản, quyền sử dụng đất thuộc chủ sở hữu, chủ sử dụng hoặc đi thuê</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>KCN CHƠN THÀNH</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>CÔNG TY CỔ PHẦN ĐẦU TƯ CTM</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>4711</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Bán lẻ lương thực, thực phẩm, đồ uống, thuốc lá, thuốc lào chiếm tỷ trọng lớn trong các cửa hàng kinh doanh tổng hợp</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>KCN CHƠN THÀNH</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>CÔNG TY CỔ PHẦN BẤT ĐỘNG SẢN TRÀNG AN LAND</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>6820</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Tư vấn, môi giới, đấu giá bất động sản, đấu giá quyền sử dụng đất</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>KCN BECAMEX BÌNH PHƯỚC</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>CÔNG TY CỔ PHẦN ĐẦU TƯ SẢN XUẤT NÔNG NGHIỆP SUỐI LAM</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>121</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Trồng cây ăn quả</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>KCN BẮC ĐỒNG PHÚ</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>CÔNG TY CỔ PHẦN GĂNG TAY BÌNH PHƯỚC</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>2219</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Sản xuất sản phẩm khác từ cao su</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>KCN CHƠN THÀNH</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>CÔNG TY CỔ PHẦN CÔNG NGHIỆP NAM HƯNG PHƯỚC</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>6810</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Kinh doanh bất động sản, quyền sử dụng đất thuộc chủ sở hữu, chủ sử dụng hoặc đi thuê</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>KCN MINH HƯNG SIKICO</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>CÔNG TY CỔ PHẦN KIM TÍN MDF CHƠN THÀNH</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>1621</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Sản xuất gỗ dán, gỗ lạng, ván ép và ván mỏng khác</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>KCN BECAMEX BÌNH PHƯỚC</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>CÔNG TY CỔ PHẦN LEGEND BP</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>7020</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Hoạt động tư vấn quản lý</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>KCN MINH HƯNG SIKICO</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>CÔNG TY CỔ PHẦN PHÁT TRIỂN CÔNG NGHIỆP KIM TÍN CHƠN THÀNH</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>5210</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Kho bãi và lưu giữ hàng hóa</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>KCN BECAMEX BÌNH PHƯỚC</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>CÔNG TY CỔ PHẦN CÔNG NGHIỆP ĐẠI HẠNH PHÚC</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>6810</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Kinh doanh bất động sản, quyền sử dụng đất thuộc chủ sở hữu, chủ sử dụng hoặc đi thuê</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>KCN MINH HƯNG SIKICO</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>CÔNG TY CỔ PHẦN KIM TÍN DECOR</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>3100</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Sản xuất giường, tủ, bàn, ghế</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>KCN BECAMEX BÌNH PHƯỚC</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>CÔNG TY CỔ PHẦN CÔNG NGHIỆP ION</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>6810</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Kinh doanh bất động sản, quyền sử dụng đất thuộc chủ sở hữu, chủ sử dụng hoặc đi thuê</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>KCN CHƠN THÀNH</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>CÔNG TY CỔ PHẦN KIM TÍN PKBD</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>6810</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Kinh doanh bất động sản, quyền sử dụng đất thuộc chủ sở hữu, chủ sử dụng hoặc đi thuê</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>KCN NAM ĐỒNG PHÚ</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>CÔNG TY CỔ PHẦN ĐẦU TƯ PHƯỚC LINH</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>6810</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Kinh doanh bất động sản, quyền sử dụng đất thuộc chủ sở hữu, chủ sử dụng hoặc đi thuê</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>KCN ĐỒNG XOÀI I</t>
+        </is>
       </c>
     </row>
   </sheetData>
